--- a/zabka/Frog/products.xlsx
+++ b/zabka/Frog/products.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,45 +496,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jabkol</t>
+          <t>Czarnuch</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Robol</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jabkol</t>
+          <t>da</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>3214</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dam</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Czarnuch</t>
+          <t xml:space="preserve">czarnuch </t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -545,7 +553,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Robol</t>
+          <t>robol</t>
         </is>
       </c>
     </row>

--- a/zabka/Frog/products.xlsx
+++ b/zabka/Frog/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,98 +462,337 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jabkol</t>
+          <t>Czarnuch</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Robol</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jabkol</t>
+          <t xml:space="preserve">czarnuch </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>robol</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Czarnuch</t>
+          <t>Baton</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Robol</t>
+          <t>Słodycze</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>Czekolada</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3214</v>
+        <v>110</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>dam</t>
+          <t>Słodycze</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">czarnuch </t>
+          <t>Żelki Haribo</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>220</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Słodycze</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CocaCola</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>127</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Napoje</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Woda</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>399</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Napoje</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fanta</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Napoje</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sprite</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Napoje</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pomarańcze</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Owoce</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chleb biały</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pieczywo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bułki</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>robol</t>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pieczywo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kalafior</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Warzywa</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marchewka</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>36</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Warzywa</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Piwo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Alkohole</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Wino</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Alkohole</t>
         </is>
       </c>
     </row>
